--- a/biology/Botanique/Combretum_zeyheri/Combretum_zeyheri.xlsx
+++ b/biology/Botanique/Combretum_zeyheri/Combretum_zeyheri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Combretum zeyheri, le saule buisson à gros fruits, ou saule buisson de Zeyher, est une espèce de plante à fleurs de la famille des Combretaceae
 </t>
@@ -511,9 +523,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve généralement sur les sols acides ou sablonneux des savanes tropicales africaines[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve généralement sur les sols acides ou sablonneux des savanes tropicales africaines,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Combretum antunesii Engl. &amp; Diels
 Combretum bragae Engl.
@@ -584,7 +600,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre de petite à moyenne taille petite. Ses fruits sont des samares.
 </t>
@@ -615,11 +633,48 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses racines sont utilisées comme matériau pour la fabrication de paniers. C'est aussi une médecine traditionnelle pour les hémorroïdes[3].
-Archéologie
-La Structure de Kalambo est la plus ancienne structure en bois connue, datant d’il y a environ 476 000 ans, elle est constituée de deux rondins de bois imbriqués et reliés par une encoche. Ces rondins proviennent d’un saule buissonneux à gros fruits. Elle est située près des aux chutes de Kalambo, en Zambie[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses racines sont utilisées comme matériau pour la fabrication de paniers. C'est aussi une médecine traditionnelle pour les hémorroïdes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Combretum_zeyheri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Combretum_zeyheri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Archéologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Structure de Kalambo est la plus ancienne structure en bois connue, datant d’il y a environ 476 000 ans, elle est constituée de deux rondins de bois imbriqués et reliés par une encoche. Ces rondins proviennent d’un saule buissonneux à gros fruits. Elle est située près des aux chutes de Kalambo, en Zambie.
 </t>
         </is>
       </c>
